--- a/data/576/CPF/CPF - Monthly.xlsx
+++ b/data/576/CPF/CPF - Monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\INTLINE\data\576\CPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\576\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879DDAF-351C-480B-B65D-3A01F75A7C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="821">
   <si>
     <t>index</t>
   </si>
@@ -2475,13 +2476,25 @@
   </si>
   <si>
     <t>2022-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2850,17 +2863,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AEG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AEJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="ADM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AEC6" sqref="AEC6"/>
+      <pane xSplit="6" topLeftCell="ADN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AEJ3" sqref="AEJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:813" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:816" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5300,8 +5313,17 @@
       <c r="AEG1" s="2" t="s">
         <v>817</v>
       </c>
+      <c r="AEH1" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="AEI1" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="AEJ1" s="2" t="s">
+        <v>820</v>
+      </c>
     </row>
-    <row r="2" spans="1:813" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:816" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>810</v>
       </c>
@@ -7739,6 +7761,15 @@
         <v>2.5</v>
       </c>
       <c r="AEG2">
+        <v>2.5</v>
+      </c>
+      <c r="AEH2">
+        <v>2.5</v>
+      </c>
+      <c r="AEI2">
+        <v>2.5</v>
+      </c>
+      <c r="AEJ2">
         <v>2.5</v>
       </c>
     </row>
